--- a/DataExtraction/Input/LLP/Form_8_Interim/FORM-8(INTERIM)_nodes_config.xlsx
+++ b/DataExtraction/Input/LLP/Form_8_Interim/FORM-8(INTERIM)_nodes_config.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Field_Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>CHARGE_ID_NO</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -93,37 +90,70 @@
     <t>open_charges_latest_event</t>
   </si>
   <si>
+    <t>property_type_IMM_PROPERTY</t>
+  </si>
+  <si>
+    <t>TC_IMM_PROPERTY</t>
+  </si>
+  <si>
     <t>property_type</t>
   </si>
   <si>
-    <t>TC_IMM_PROPERTY</t>
+    <t>property_type_SHIP</t>
   </si>
   <si>
     <t>TC_SHIP</t>
   </si>
   <si>
+    <t>property_type_INT_IMM_PROP</t>
+  </si>
+  <si>
     <t>TC_INT_IMM_PROP</t>
   </si>
   <si>
+    <t>property_type_GOODWILL</t>
+  </si>
+  <si>
     <t>TC_GOODWILL</t>
   </si>
   <si>
+    <t>property_type_BOOK_DEBTS</t>
+  </si>
+  <si>
     <t>TC_BOOK_DEBTS</t>
   </si>
   <si>
+    <t>property_type_TRADE_MARKS</t>
+  </si>
+  <si>
     <t>TC_TRADE_MARKS</t>
   </si>
   <si>
+    <t>property_type_PATENT</t>
+  </si>
+  <si>
     <t>TC_PATENT</t>
   </si>
   <si>
+    <t>property_type_FLOATING_CHRG</t>
+  </si>
+  <si>
     <t>TC_FLOATING_CHRG</t>
   </si>
   <si>
+    <t>property_type_MOVABLE_PROP</t>
+  </si>
+  <si>
     <t>TC_MOVABLE_PROP</t>
   </si>
   <si>
+    <t>property_type_COPYRIGHT</t>
+  </si>
+  <si>
     <t>TC_COPYRIGHT</t>
+  </si>
+  <si>
+    <t>property_type_OTHER</t>
   </si>
   <si>
     <t>TC_OTHER</t>
@@ -653,62 +683,62 @@
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1858,97 +1888,97 @@
         <v>12</v>
       </c>
       <c r="F4" t="s" s="17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" ht="14" customHeight="1">
       <c r="A5" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="19">
         <v>16</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>17</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>12</v>
       </c>
       <c r="F5" t="s" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" ht="14" customHeight="1">
       <c r="A6" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="21">
         <v>18</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="21">
-        <v>19</v>
       </c>
       <c r="E6" t="s" s="20">
         <v>12</v>
       </c>
       <c r="F6" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="21">
         <v>21</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s" s="21">
-        <v>22</v>
       </c>
       <c r="E7" t="s" s="20">
         <v>12</v>
       </c>
       <c r="F7" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="23">
         <v>23</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s" s="23">
-        <v>24</v>
       </c>
       <c r="E8" t="s" s="20">
         <v>12</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" ht="29.25" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1971,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s" s="26">
         <v>13</v>
@@ -1980,112 +2010,112 @@
     </row>
     <row r="11" ht="17" customHeight="1">
       <c r="A11" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="27">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="27">
-        <v>17</v>
-      </c>
       <c r="E11" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s" s="26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="28">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s" s="28">
+      <c r="E12" t="s" s="25">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s" s="17">
         <v>19</v>
-      </c>
-      <c r="E12" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s" s="17">
-        <v>20</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="28">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s" s="28">
-        <v>22</v>
-      </c>
       <c r="E13" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s" s="29">
-        <v>24</v>
-      </c>
       <c r="E14" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s" s="18">
-        <v>27</v>
-      </c>
       <c r="E15" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="5">
         <v>8</v>
@@ -2094,19 +2124,19 @@
         <v>9</v>
       </c>
       <c r="D16" t="s" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="5">
         <v>8</v>
@@ -2115,19 +2145,19 @@
         <v>9</v>
       </c>
       <c r="D17" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="5">
         <v>8</v>
@@ -2136,19 +2166,19 @@
         <v>9</v>
       </c>
       <c r="D18" t="s" s="18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="5">
         <v>8</v>
@@ -2157,19 +2187,19 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" s="18">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="5">
         <v>8</v>
@@ -2178,19 +2208,19 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" s="18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="18">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="5">
         <v>8</v>
@@ -2199,19 +2229,19 @@
         <v>9</v>
       </c>
       <c r="D21" t="s" s="18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s" s="5">
         <v>8</v>
@@ -2220,19 +2250,19 @@
         <v>9</v>
       </c>
       <c r="D22" t="s" s="18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="5">
         <v>8</v>
@@ -2241,19 +2271,19 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" s="18">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="18">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="5">
         <v>8</v>
@@ -2262,19 +2292,19 @@
         <v>9</v>
       </c>
       <c r="D24" t="s" s="18">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="18">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="5">
         <v>8</v>
@@ -2283,19 +2313,19 @@
         <v>9</v>
       </c>
       <c r="D25" t="s" s="18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="18">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="5">
         <v>8</v>
@@ -2304,19 +2334,19 @@
         <v>9</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s" s="26">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="5">
         <v>8</v>
@@ -2325,19 +2355,19 @@
         <v>9</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="18">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="5">
         <v>8</v>
@@ -2346,19 +2376,19 @@
         <v>9</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s" s="26">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="18">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s" s="5">
         <v>8</v>
@@ -2367,19 +2397,19 @@
         <v>9</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s" s="26">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="5">
         <v>8</v>
@@ -2388,19 +2418,19 @@
         <v>9</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s" s="26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="18">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="5">
         <v>8</v>
@@ -2409,19 +2439,19 @@
         <v>9</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s" s="26">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="5">
         <v>8</v>
@@ -2430,19 +2460,19 @@
         <v>9</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="18">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s" s="5">
         <v>8</v>
@@ -2451,19 +2481,19 @@
         <v>9</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s" s="26">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="18">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s" s="5">
         <v>8</v>
@@ -2472,19 +2502,19 @@
         <v>9</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s" s="26">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="18">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s" s="5">
         <v>8</v>
@@ -2493,36 +2523,38 @@
         <v>9</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s" s="26">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="B36" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="B36" t="s" s="5">
+        <v>8</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" t="s" s="5">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s" s="26">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2533,7 +2565,7 @@
     </row>
     <row r="38" ht="17" customHeight="1">
       <c r="A38" t="s" s="18">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="5">
         <v>8</v>
@@ -2545,121 +2577,121 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s" s="26">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G38" s="11"/>
     </row>
     <row r="39" ht="14" customHeight="1">
       <c r="A39" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="27">
         <v>16</v>
       </c>
-      <c r="B39" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s" s="27">
-        <v>17</v>
-      </c>
       <c r="E39" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="11"/>
     </row>
     <row r="40" ht="14" customHeight="1">
       <c r="A40" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="28">
         <v>18</v>
       </c>
-      <c r="B40" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s" s="28">
+      <c r="E40" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s" s="17">
         <v>19</v>
-      </c>
-      <c r="E40" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s" s="17">
-        <v>20</v>
       </c>
       <c r="G40" s="9"/>
     </row>
     <row r="41" ht="14" customHeight="1">
       <c r="A41" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s" s="28">
         <v>21</v>
       </c>
-      <c r="B41" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s" s="28">
-        <v>22</v>
-      </c>
       <c r="E41" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="9"/>
     </row>
     <row r="42" ht="14" customHeight="1">
       <c r="A42" t="s" s="18">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s" s="5">
         <v>8</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s" s="28">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="9"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="B43" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s" s="29">
-        <v>24</v>
-      </c>
       <c r="E43" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="11"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="18">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s" s="5">
         <v>8</v>
@@ -2668,40 +2700,40 @@
         <v>9</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s" s="5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G44" s="11"/>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="18">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="B45" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s" s="18">
-        <v>27</v>
-      </c>
       <c r="E45" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G45" s="11"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s" s="5">
         <v>8</v>
@@ -2710,19 +2742,19 @@
         <v>9</v>
       </c>
       <c r="D46" t="s" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" s="11"/>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s" s="5">
         <v>8</v>
@@ -2731,19 +2763,19 @@
         <v>9</v>
       </c>
       <c r="D47" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G47" s="11"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="18">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s" s="5">
         <v>8</v>
@@ -2752,19 +2784,19 @@
         <v>9</v>
       </c>
       <c r="D48" t="s" s="18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" s="11"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="18">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s" s="5">
         <v>8</v>
@@ -2773,19 +2805,19 @@
         <v>9</v>
       </c>
       <c r="D49" t="s" s="18">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G49" s="11"/>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s" s="5">
         <v>8</v>
@@ -2794,19 +2826,19 @@
         <v>9</v>
       </c>
       <c r="D50" t="s" s="18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" s="11"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="18">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s" s="5">
         <v>8</v>
@@ -2815,19 +2847,19 @@
         <v>9</v>
       </c>
       <c r="D51" t="s" s="18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G51" s="11"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="18">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s" s="5">
         <v>8</v>
@@ -2836,19 +2868,19 @@
         <v>9</v>
       </c>
       <c r="D52" t="s" s="18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G52" s="11"/>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="18">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s" s="5">
         <v>8</v>
@@ -2857,19 +2889,19 @@
         <v>9</v>
       </c>
       <c r="D53" t="s" s="18">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G53" s="11"/>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="18">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="5">
         <v>8</v>
@@ -2878,19 +2910,19 @@
         <v>9</v>
       </c>
       <c r="D54" t="s" s="18">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G54" s="11"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="18">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s" s="5">
         <v>8</v>
@@ -2899,36 +2931,38 @@
         <v>9</v>
       </c>
       <c r="D55" t="s" s="18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G55" s="11"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="B56" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>8</v>
+      </c>
       <c r="C56" s="11"/>
       <c r="D56" t="s" s="5">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s" s="5">
         <v>8</v>
@@ -2937,18 +2971,18 @@
         <v>9</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s" s="26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G57" s="11"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2957,7 +2991,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2966,7 +3000,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2975,103 +3009,103 @@
       <c r="G60" s="11"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3090,15 +3124,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.1719" style="36" customWidth="1"/>
-    <col min="2" max="2" width="18.3516" style="36" customWidth="1"/>
-    <col min="3" max="3" width="53" style="36" customWidth="1"/>
-    <col min="4" max="4" width="22" style="36" customWidth="1"/>
-    <col min="5" max="5" width="60.3516" style="36" customWidth="1"/>
-    <col min="6" max="6" width="37.8516" style="36" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="36" customWidth="1"/>
+    <col min="1" max="1" width="28.1719" style="35" customWidth="1"/>
+    <col min="2" max="2" width="18.3516" style="35" customWidth="1"/>
+    <col min="3" max="3" width="53" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22" style="35" customWidth="1"/>
+    <col min="5" max="5" width="60.3516" style="35" customWidth="1"/>
+    <col min="6" max="6" width="37.8516" style="35" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="35" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -3114,7 +3148,7 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="36"/>
       <c r="F1" t="s" s="3">
         <v>4</v>
       </c>
@@ -3138,7 +3172,7 @@
       <c r="D2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="37"/>
       <c r="F2" t="s" s="7">
         <v>11</v>
       </c>
@@ -3170,52 +3204,52 @@
       <c r="D4" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="39">
-        <v>66</v>
-      </c>
-      <c r="F4" s="40"/>
+      <c r="E4" t="s" s="38">
+        <v>76</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" ht="81" customHeight="1">
       <c r="A5" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" ht="48.75" customHeight="1">
       <c r="A6" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" ht="48.75" customHeight="1">
       <c r="A7" t="s" s="18">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="5">
         <v>8</v>
@@ -3224,44 +3258,44 @@
         <v>9</v>
       </c>
       <c r="D7" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="23">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
       <c r="F8" t="s" s="20">
         <v>12</v>
       </c>
       <c r="G8" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="9"/>
     </row>
     <row r="9" ht="29.25" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
@@ -3278,11 +3312,11 @@
       <c r="D10" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E10" t="s" s="39">
-        <v>68</v>
+      <c r="E10" t="s" s="38">
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s" s="26">
         <v>13</v>
@@ -3291,47 +3325,47 @@
     </row>
     <row r="11" ht="71.25" customHeight="1">
       <c r="A11" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
       <c r="F11" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="G11" s="46"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="45"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" ht="48.75" customHeight="1">
       <c r="A12" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" ht="48.75" customHeight="1">
       <c r="A13" t="s" s="18">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s" s="5">
         <v>8</v>
@@ -3340,62 +3374,62 @@
         <v>9</v>
       </c>
       <c r="D13" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E13" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="46"/>
       <c r="F13" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="29">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="E14" s="48"/>
+      <c r="E14" s="47"/>
       <c r="F14" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" ht="17" customHeight="1">
       <c r="A15" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="18">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="47"/>
       <c r="F15" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" ht="17" customHeight="1">
       <c r="A16" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="5">
         <v>8</v>
@@ -3404,20 +3438,20 @@
         <v>9</v>
       </c>
       <c r="D16" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="E16" s="48"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="47"/>
       <c r="F16" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" ht="17" customHeight="1">
       <c r="A17" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="5">
         <v>8</v>
@@ -3426,20 +3460,20 @@
         <v>9</v>
       </c>
       <c r="D17" t="s" s="18">
-        <v>29</v>
-      </c>
-      <c r="E17" s="48"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="47"/>
       <c r="F17" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" ht="17" customHeight="1">
       <c r="A18" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="5">
         <v>8</v>
@@ -3448,20 +3482,20 @@
         <v>9</v>
       </c>
       <c r="D18" t="s" s="18">
-        <v>30</v>
-      </c>
-      <c r="E18" s="48"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="47"/>
       <c r="F18" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" ht="17" customHeight="1">
       <c r="A19" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s" s="5">
         <v>8</v>
@@ -3470,20 +3504,20 @@
         <v>9</v>
       </c>
       <c r="D19" t="s" s="18">
-        <v>31</v>
-      </c>
-      <c r="E19" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="47"/>
       <c r="F19" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" ht="17" customHeight="1">
       <c r="A20" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s" s="5">
         <v>8</v>
@@ -3492,20 +3526,20 @@
         <v>9</v>
       </c>
       <c r="D20" t="s" s="18">
-        <v>32</v>
-      </c>
-      <c r="E20" s="48"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="47"/>
       <c r="F20" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s" s="5">
         <v>8</v>
@@ -3514,20 +3548,20 @@
         <v>9</v>
       </c>
       <c r="D21" t="s" s="18">
-        <v>33</v>
-      </c>
-      <c r="E21" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" ht="17" customHeight="1">
       <c r="A22" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s" s="5">
         <v>8</v>
@@ -3536,20 +3570,20 @@
         <v>9</v>
       </c>
       <c r="D22" t="s" s="18">
-        <v>34</v>
-      </c>
-      <c r="E22" s="48"/>
+        <v>41</v>
+      </c>
+      <c r="E22" s="47"/>
       <c r="F22" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" ht="17" customHeight="1">
       <c r="A23" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s" s="5">
         <v>8</v>
@@ -3558,20 +3592,20 @@
         <v>9</v>
       </c>
       <c r="D23" t="s" s="18">
-        <v>35</v>
-      </c>
-      <c r="E23" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="E23" s="47"/>
       <c r="F23" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="11"/>
     </row>
     <row r="24" ht="17" customHeight="1">
       <c r="A24" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s" s="5">
         <v>8</v>
@@ -3580,20 +3614,20 @@
         <v>9</v>
       </c>
       <c r="D24" t="s" s="18">
-        <v>36</v>
-      </c>
-      <c r="E24" s="48"/>
+        <v>45</v>
+      </c>
+      <c r="E24" s="47"/>
       <c r="F24" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" ht="17" customHeight="1">
       <c r="A25" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="5">
         <v>8</v>
@@ -3602,20 +3636,20 @@
         <v>9</v>
       </c>
       <c r="D25" t="s" s="18">
-        <v>37</v>
-      </c>
-      <c r="E25" s="48"/>
+        <v>47</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" ht="17" customHeight="1">
       <c r="A26" t="s" s="18">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="5">
         <v>8</v>
@@ -3624,20 +3658,20 @@
         <v>9</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="E26" s="48"/>
+        <v>49</v>
+      </c>
+      <c r="E26" s="47"/>
       <c r="F26" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s" s="26">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H26" s="11"/>
     </row>
     <row r="27" ht="17" customHeight="1">
       <c r="A27" t="s" s="18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="5">
         <v>8</v>
@@ -3646,20 +3680,20 @@
         <v>9</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="E27" s="48"/>
+        <v>51</v>
+      </c>
+      <c r="E27" s="47"/>
       <c r="F27" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s" s="26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" ht="17" customHeight="1">
       <c r="A28" t="s" s="18">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="5">
         <v>8</v>
@@ -3668,20 +3702,20 @@
         <v>9</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="E28" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s" s="26">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" ht="17" customHeight="1">
       <c r="A29" t="s" s="18">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s" s="5">
         <v>8</v>
@@ -3690,20 +3724,20 @@
         <v>9</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="E29" s="48"/>
+        <v>55</v>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s" s="26">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" ht="17" customHeight="1">
       <c r="A30" t="s" s="18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s" s="5">
         <v>8</v>
@@ -3712,20 +3746,20 @@
         <v>9</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="E30" s="48"/>
+        <v>57</v>
+      </c>
+      <c r="E30" s="47"/>
       <c r="F30" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s" s="26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" ht="17" customHeight="1">
       <c r="A31" t="s" s="18">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="5">
         <v>8</v>
@@ -3734,20 +3768,20 @@
         <v>9</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E31" s="48"/>
+        <v>59</v>
+      </c>
+      <c r="E31" s="47"/>
       <c r="F31" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s" s="26">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" ht="17" customHeight="1">
       <c r="A32" t="s" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s" s="5">
         <v>8</v>
@@ -3756,20 +3790,20 @@
         <v>9</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="E32" s="48"/>
+        <v>61</v>
+      </c>
+      <c r="E32" s="47"/>
       <c r="F32" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" ht="17" customHeight="1">
       <c r="A33" t="s" s="18">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s" s="5">
         <v>8</v>
@@ -3778,20 +3812,20 @@
         <v>9</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="E33" s="48"/>
+        <v>63</v>
+      </c>
+      <c r="E33" s="47"/>
       <c r="F33" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s" s="26">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" ht="17" customHeight="1">
       <c r="A34" t="s" s="18">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s" s="5">
         <v>8</v>
@@ -3800,20 +3834,20 @@
         <v>9</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="E34" s="48"/>
+        <v>65</v>
+      </c>
+      <c r="E34" s="47"/>
       <c r="F34" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s" s="26">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" ht="17" customHeight="1">
       <c r="A35" t="s" s="18">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s" s="5">
         <v>8</v>
@@ -3822,38 +3856,38 @@
         <v>9</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="E35" s="48"/>
+        <v>67</v>
+      </c>
+      <c r="E35" s="47"/>
       <c r="F35" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" t="s" s="26">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H35" s="11"/>
     </row>
     <row r="36" ht="17" customHeight="1">
       <c r="A36" t="s" s="18">
-        <v>58</v>
-      </c>
-      <c r="B36" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="B36" s="48"/>
       <c r="C36" s="11"/>
       <c r="D36" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="E36" s="48"/>
+        <v>69</v>
+      </c>
+      <c r="E36" s="47"/>
       <c r="F36" t="s" s="25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s" s="26">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H36" s="11"/>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3865,7 +3899,7 @@
     </row>
     <row r="38" ht="146.25" customHeight="1">
       <c r="A38" t="s" s="18">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s" s="5">
         <v>8</v>
@@ -3876,66 +3910,66 @@
       <c r="D38" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E38" t="s" s="39">
-        <v>69</v>
+      <c r="E38" t="s" s="38">
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s" s="26">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" ht="57.75" customHeight="1">
       <c r="A39" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="19">
         <v>16</v>
       </c>
-      <c r="B39" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="E39" s="47"/>
+      <c r="E39" s="46"/>
       <c r="F39" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G39" t="s" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="11"/>
     </row>
     <row r="40" ht="48.75" customHeight="1">
       <c r="A40" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="28">
         <v>18</v>
       </c>
-      <c r="B40" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s" s="28">
+      <c r="E40" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s" s="5">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s" s="17">
         <v>19</v>
-      </c>
-      <c r="E40" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="F40" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s" s="17">
-        <v>20</v>
       </c>
       <c r="H40" s="9"/>
     </row>
     <row r="41" ht="48.75" customHeight="1">
       <c r="A41" t="s" s="18">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s" s="5">
         <v>8</v>
@@ -3944,68 +3978,68 @@
         <v>9</v>
       </c>
       <c r="D41" t="s" s="28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" s="9"/>
     </row>
     <row r="42" ht="48.75" customHeight="1">
       <c r="A42" t="s" s="18">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s" s="5">
         <v>8</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s" s="28">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G42" t="s" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" s="9"/>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s" s="22">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="29">
         <v>23</v>
-      </c>
-      <c r="B43" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s" s="29">
-        <v>24</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43" s="11"/>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="18">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s" s="5">
         <v>8</v>
@@ -4014,42 +4048,42 @@
         <v>9</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G44" t="s" s="5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" ht="17" customHeight="1">
       <c r="A45" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s" s="18">
         <v>26</v>
-      </c>
-      <c r="B45" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s" s="18">
-        <v>27</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G45" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" s="11"/>
     </row>
     <row r="46" ht="17" customHeight="1">
       <c r="A46" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s" s="5">
         <v>8</v>
@@ -4058,20 +4092,20 @@
         <v>9</v>
       </c>
       <c r="D46" t="s" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H46" s="11"/>
     </row>
     <row r="47" ht="17" customHeight="1">
       <c r="A47" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s" s="5">
         <v>8</v>
@@ -4080,20 +4114,20 @@
         <v>9</v>
       </c>
       <c r="D47" t="s" s="18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H47" s="11"/>
     </row>
     <row r="48" ht="17" customHeight="1">
       <c r="A48" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s" s="5">
         <v>8</v>
@@ -4102,20 +4136,20 @@
         <v>9</v>
       </c>
       <c r="D48" t="s" s="18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H48" s="11"/>
     </row>
     <row r="49" ht="17" customHeight="1">
       <c r="A49" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s" s="5">
         <v>8</v>
@@ -4124,20 +4158,20 @@
         <v>9</v>
       </c>
       <c r="D49" t="s" s="18">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" ht="17" customHeight="1">
       <c r="A50" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s" s="5">
         <v>8</v>
@@ -4146,20 +4180,20 @@
         <v>9</v>
       </c>
       <c r="D50" t="s" s="18">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H50" s="11"/>
     </row>
     <row r="51" ht="17" customHeight="1">
       <c r="A51" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s" s="5">
         <v>8</v>
@@ -4168,20 +4202,20 @@
         <v>9</v>
       </c>
       <c r="D51" t="s" s="18">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H51" s="11"/>
     </row>
     <row r="52" ht="17" customHeight="1">
       <c r="A52" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s" s="5">
         <v>8</v>
@@ -4190,20 +4224,20 @@
         <v>9</v>
       </c>
       <c r="D52" t="s" s="18">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G52" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H52" s="11"/>
     </row>
     <row r="53" ht="17" customHeight="1">
       <c r="A53" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s" s="5">
         <v>8</v>
@@ -4212,20 +4246,20 @@
         <v>9</v>
       </c>
       <c r="D53" t="s" s="18">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H53" s="11"/>
     </row>
     <row r="54" ht="17" customHeight="1">
       <c r="A54" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s" s="5">
         <v>8</v>
@@ -4234,20 +4268,20 @@
         <v>9</v>
       </c>
       <c r="D54" t="s" s="18">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H54" s="11"/>
     </row>
     <row r="55" ht="17" customHeight="1">
       <c r="A55" t="s" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s" s="5">
         <v>8</v>
@@ -4256,36 +4290,36 @@
         <v>9</v>
       </c>
       <c r="D55" t="s" s="18">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H55" s="11"/>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="18">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" t="s" s="5">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
     </row>
     <row r="57" ht="17" customHeight="1">
       <c r="A57" t="s" s="18">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s" s="5">
         <v>8</v>
@@ -4294,19 +4328,19 @@
         <v>9</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G57" t="s" s="26">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H57" s="11"/>
     </row>
     <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -4316,7 +4350,7 @@
       <c r="H58" s="11"/>
     </row>
     <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -4326,7 +4360,7 @@
       <c r="H59" s="11"/>
     </row>
     <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -4336,114 +4370,114 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4474,148 +4508,148 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="34"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="50"/>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="34"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" t="s" s="51">
-        <v>26</v>
-      </c>
-      <c r="E15" s="34"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="17" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" t="s" s="51">
-        <v>46</v>
-      </c>
-      <c r="E20" s="34"/>
+        <v>56</v>
+      </c>
+      <c r="E20" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
